--- a/portfolyo/Calisma2/Calisma2VeriSet/Evlilik_Durumu_VS.xlsx
+++ b/portfolyo/Calisma2/Calisma2VeriSet/Evlilik_Durumu_VS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myalcin\Documents\GitHub\muy665-bahar2024-takim-kodlar-vadisi\portfolyo\Calisma2\Calisma2VeriSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parad\Documents\GitHub\muy665-bahar2024-takim-kodlar-vadisi\portfolyo\Calisma2\Calisma2VeriSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1DF6D8-47C1-4560-8436-03BDEAC0C396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A0B37B-694B-44F2-94BB-C63AF43EA1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15750" xr2:uid="{32EE6E24-D620-4F61-9B5E-0B58C054BBAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{32EE6E24-D620-4F61-9B5E-0B58C054BBAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1F9837-E1D3-444C-9EFD-3A7623BE7C37}">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
